--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1226,10 +1226,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
@@ -1375,62 +1375,226 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" s="0" t="n"/>
+      <c r="B11" s="0" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n"/>
+      <c r="B12" s="0" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n"/>
+      <c r="B13" s="0" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n"/>
+      <c r="B14" s="0" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n"/>
+      <c r="B15" s="0" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Option 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Option 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 230.19 seconds</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Option 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> 22.02 seconds</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>Option 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 230.19 seconds</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.00 seconds</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Option 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 230.19 seconds</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>Option 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 22.02 seconds</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>Option 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 22.02 seconds</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Option 1</t>
         </is>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1226,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -1587,12 +1587,24 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="0" t="inlineStr">
         <is>
           <t xml:space="preserve"> 34.00 seconds</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Option 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sample Duration 1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Option 3</t>
         </is>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1226,7 +1226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -1599,14 +1599,26 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="0" t="inlineStr">
         <is>
           <t>Sample Duration 1</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="0" t="inlineStr">
         <is>
           <t>Option 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sample Duration 1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Option 1</t>
         </is>
       </c>
     </row>
